--- a/Case Study 7/Data Summary QTW final.xlsx
+++ b/Case Study 7/Data Summary QTW final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjsch\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjschued\Documents\GitHub\7333QTW\Case Study 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE3B567-0538-4270-B634-82F35B617BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A0E9AD-304F-4C5D-AAF9-96B1A0DFE929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,41 +42,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="102">
-  <si>
-    <t>asia</t>
-  </si>
-  <si>
-    <t>euorpe</t>
-  </si>
-  <si>
-    <t>america</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>wednesday</t>
-  </si>
-  <si>
-    <t>thurday</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>friday</t>
-  </si>
-  <si>
-    <t>monday</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
   <si>
     <t>Unique</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Jun</t>
   </si>
   <si>
@@ -87,9 +56,6 @@
     <t>May</t>
   </si>
   <si>
-    <t>sept.</t>
-  </si>
-  <si>
     <t>Mar</t>
   </si>
   <si>
@@ -99,9 +65,6 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>Dev</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -349,6 +312,48 @@
   </si>
   <si>
     <t>Uniques</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Interger</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Europe</t>
   </si>
 </sst>
 </file>
@@ -1208,61 +1213,62 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.53125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C3" s="10">
         <v>138965</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F3" s="10">
         <v>45569</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="6" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="I3" s="10">
         <v>101535</v>
@@ -1275,23 +1281,23 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C4" s="10">
         <v>16538</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F4" s="10">
         <v>41329</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="I4" s="10">
         <v>29429</v>
@@ -1304,23 +1310,23 @@
         <v>34094</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C5" s="10">
         <v>4469</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F5" s="10">
         <v>29406</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I5" s="10">
         <v>27954</v>
@@ -1333,23 +1339,19 @@
         <v>33923</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>28</v>
-      </c>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10">
         <v>21939</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="6" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="I6" s="10">
         <v>564</v>
@@ -1362,19 +1364,19 @@
         <v>30492</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F7" s="10">
         <v>10819</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="6" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="I7" s="10">
         <v>488</v>
@@ -1387,23 +1389,19 @@
         <v>9924</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F8" s="10">
         <v>6761</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10">
-        <v>30</v>
-      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="9">
         <v>2.0000000000000001E-4</v>
@@ -1412,12 +1410,12 @@
         <v>7987</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F9" s="10">
         <v>2407</v>
@@ -1433,12 +1431,12 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F10" s="10">
         <v>1231</v>
@@ -1454,12 +1452,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F11" s="10">
         <v>337</v>
@@ -1475,12 +1473,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F12" s="10">
         <v>140</v>
@@ -1496,111 +1494,99 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="6" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F13" s="10">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="6" t="s">
-        <v>3</v>
+      <c r="K13" s="9">
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="L13" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F14" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="9">
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="L14" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="10">
-        <v>8</v>
-      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="9">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C19" s="10">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C21" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
   </sheetData>
@@ -1628,55 +1614,55 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C5" s="15">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C7" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C8" s="15">
         <v>52</v>
@@ -1695,941 +1681,941 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>60000</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>159974</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>159975</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>159962</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>159963</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>159974</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>159963</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>159974</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>159973</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>159979</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>159970</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>159957</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>159970</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>159964</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>159969</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>159966</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>159965</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>159974</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>159973</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>159960</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>159965</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>159962</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>159971</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>159973</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>159953</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>159972</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>159978</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>159964</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>159970</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C33">
         <v>159965</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>159970</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>159970</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>159961</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>159969</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>159959</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>159959</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C40">
         <v>159970</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <v>159973</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>159977</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C43">
         <v>159969</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>159977</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>159964</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C46">
         <v>159960</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C47">
         <v>159974</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C48">
         <v>159963</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C49">
         <v>159960</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C50">
         <v>159971</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C51">
         <v>159969</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C52">
         <v>159963</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C53">
         <v>159968</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C54">
         <v>159968</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <v>160000</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2647,419 +2633,419 @@
       <selection activeCell="A26" sqref="A26:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>159975</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>159976</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>159963</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>159964</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>159975</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>159964</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>159975</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>159974</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>159980</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>159971</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>159958</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>159971</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>159965</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>159970</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>159967</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>159966</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>159975</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>159974</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>159961</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>159966</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>159963</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>159972</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>159974</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>159954</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>159979</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>159965</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>159971</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>159966</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>159962</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>159960</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B36">
         <v>159960</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B37">
         <v>159971</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B38">
         <v>159974</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B39">
         <v>129199</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>159970</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>159978</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>159965</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B43">
         <v>159961</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>159975</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B45">
         <v>159964</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>159961</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>159972</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <v>159970</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>159964</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B50">
         <v>159969</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B51">
         <v>159969</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B52">
         <v>2</v>

--- a/Case Study 7/Data Summary QTW final.xlsx
+++ b/Case Study 7/Data Summary QTW final.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjschued\Documents\GitHub\7333QTW\Case Study 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A0E9AD-304F-4C5D-AAF9-96B1A0DFE929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0149F00D-69F6-4953-AFF2-4CF3A21FB7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$B$52</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="120">
   <si>
     <t>Unique</t>
   </si>
@@ -308,12 +305,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Clumn</t>
-  </si>
-  <si>
-    <t>Uniques</t>
-  </si>
-  <si>
     <t>Sep</t>
   </si>
   <si>
@@ -354,17 +345,72 @@
   </si>
   <si>
     <t>Europe</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>True_Positives</t>
+  </si>
+  <si>
+    <t>True_Negatives</t>
+  </si>
+  <si>
+    <t>False_Positives</t>
+  </si>
+  <si>
+    <t>False_Negatives</t>
+  </si>
+  <si>
+    <t>Cost(1000s)</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Gaussian Naive-Bayes</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Best</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +442,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,11 +488,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -477,12 +531,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -911,6 +986,23 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{93BF516F-37E6-4A3F-86BA-7656731BD91C}" name="Table6" displayName="Table6" ref="A1:I12" totalsRowShown="0">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CFB02C13-ECFF-4548-BD01-2A628F8E5BD7}" name="Classifier"/>
+    <tableColumn id="2" xr3:uid="{A8BCF036-771A-4816-9EAE-9AE8F536C1CB}" name="Features"/>
+    <tableColumn id="3" xr3:uid="{072AAFD6-A812-42FD-8ADE-C342D1D40D7B}" name="Accuracy" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{4727DE4E-C8F3-4D11-BAD1-3EF1AE71F575}" name="Parameters"/>
+    <tableColumn id="6" xr3:uid="{D6DB5706-2436-4AC8-9EB5-A9F856943FDD}" name="True_Positives" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{AAF12777-CE98-4AD6-A7F9-88A4BB609F97}" name="True_Negatives" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{12CC3D41-9C54-46F5-847A-4A238F911C3D}" name="False_Positives" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{3DF5997E-E3AC-4F65-8F3F-BF34A77A9967}" name="False_Negatives" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{297BBF74-7BD2-45BE-99C6-458BA5D21332}" name="Cost(1000s)" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5EE7DE-9F81-4050-ACA1-2D36073FC468}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -1254,21 +1346,21 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10">
         <v>138965</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="10">
         <v>45569</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3" s="10">
         <v>101535</v>
@@ -1283,7 +1375,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10">
         <v>16538</v>
@@ -1297,7 +1389,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I4" s="10">
         <v>29429</v>
@@ -1312,7 +1404,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="10">
         <v>4469</v>
@@ -1326,7 +1418,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="10">
         <v>27954</v>
@@ -1351,7 +1443,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I6" s="10">
         <v>564</v>
@@ -1369,14 +1461,14 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="10">
         <v>10819</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I7" s="10">
         <v>488</v>
@@ -1499,7 +1591,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" s="10">
         <v>23</v>
@@ -1555,7 +1647,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="10">
         <v>45</v>
@@ -1563,7 +1655,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -1571,7 +1663,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="10">
         <v>5</v>
@@ -1670,6 +1762,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2625,443 +2718,379 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE3259-8593-4F45-B678-A285230A3E4A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73774219-A596-4AFA-B29C-A65C55A6F834}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>159975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>159976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>159963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>159964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>159975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>159964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>159975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>159974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <v>159980</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>159971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <v>159958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>159971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14">
-        <v>159965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>159970</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <v>159967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>159966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>159975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19">
-        <v>159974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20">
-        <v>159961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21">
-        <v>159966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22">
-        <v>159963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23">
-        <v>159972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24">
-        <v>159974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25">
-        <v>159954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27">
-        <v>159979</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28">
-        <v>159965</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29">
-        <v>159971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30">
-        <v>159966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33">
-        <v>159962</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35">
-        <v>159960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36">
-        <v>159960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37">
-        <v>159971</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38">
-        <v>159974</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39">
-        <v>129199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40">
-        <v>159970</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41">
-        <v>159978</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42">
-        <v>159965</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43">
-        <v>159961</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44">
-        <v>159975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45">
-        <v>159964</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46">
-        <v>159961</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47">
-        <v>159972</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48">
-        <v>159970</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49">
-        <v>159964</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50">
-        <v>159969</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51">
-        <v>159969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.70733800000000002</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="17">
+        <v>8244</v>
+      </c>
+      <c r="F2" s="17">
+        <v>20029</v>
+      </c>
+      <c r="G2" s="17">
+        <v>3906</v>
+      </c>
+      <c r="H2" s="17">
+        <v>7792</v>
+      </c>
+      <c r="I2" s="16">
+        <v>3935.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="17">
+        <v>8307</v>
+      </c>
+      <c r="F3" s="17">
+        <v>19249</v>
+      </c>
+      <c r="G3" s="17">
+        <v>4686</v>
+      </c>
+      <c r="H3" s="17">
+        <v>7729</v>
+      </c>
+      <c r="I3" s="16">
+        <v>3911.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.83938400000000002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="17">
+        <v>12861</v>
+      </c>
+      <c r="F4" s="17">
+        <v>20690</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3245</v>
+      </c>
+      <c r="H4" s="17">
+        <v>3175</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1619.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.91756499999999996</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="17">
+        <v>13833</v>
+      </c>
+      <c r="F5" s="17">
+        <v>22843</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1092</v>
+      </c>
+      <c r="H5" s="17">
+        <v>2203</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1112.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.92164299999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="17">
+        <v>14288</v>
+      </c>
+      <c r="F6" s="17">
+        <v>22551</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1384</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1748</v>
+      </c>
+      <c r="I6" s="16">
+        <v>887.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.85674600000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="17">
+        <v>13154</v>
+      </c>
+      <c r="F7" s="17">
+        <v>21091</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2844</v>
+      </c>
+      <c r="H7" s="17">
+        <v>2882</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1469.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.93052500000000005</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="17">
+        <v>14311</v>
+      </c>
+      <c r="F8" s="17">
+        <v>22883</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1052</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1725</v>
+      </c>
+      <c r="I8" s="16">
+        <v>873.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.92517099999999997</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="17">
+        <v>14400</v>
+      </c>
+      <c r="F9" s="17">
+        <v>22580</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1355</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1636</v>
+      </c>
+      <c r="I9" s="16">
+        <v>831.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.84751399999999999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="17">
+        <v>12894</v>
+      </c>
+      <c r="F10" s="17">
+        <v>20982</v>
+      </c>
+      <c r="G10" s="17">
+        <v>2953</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3142</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1600.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.93315199999999998</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="17">
+        <v>14429</v>
+      </c>
+      <c r="F11" s="17">
+        <v>22870</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1065</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1607</v>
+      </c>
+      <c r="I11" s="16">
+        <v>814.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.93900600000000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="17">
+        <v>14758</v>
+      </c>
+      <c r="F12" s="17">
+        <v>22775</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1160</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1278</v>
+      </c>
+      <c r="I12" s="16">
+        <v>650.6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B52" xr:uid="{B80EBC04-579D-4D3B-9E63-29B87F76E869}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="13"/>
-        <filter val="2"/>
-        <filter val="4"/>
-        <filter val="6"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Case Study 7/Data Summary QTW final.xlsx
+++ b/Case Study 7/Data Summary QTW final.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjschued\Documents\GitHub\7333QTW\Case Study 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevinm\Documents\GitHub\7333QTW\Case Study 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0149F00D-69F6-4953-AFF2-4CF3A21FB7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91974625-082B-4D8A-8B6F-9C746F9DDA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
+    <workbookView xWindow="-24720" yWindow="2100" windowWidth="21600" windowHeight="11250" activeTab="4" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4 (2)" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="120">
   <si>
     <t>Unique</t>
   </si>
@@ -410,7 +411,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +450,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,8 +472,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -487,6 +514,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -494,7 +667,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -531,9 +704,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -541,23 +737,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -986,23 +1166,6 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{93BF516F-37E6-4A3F-86BA-7656731BD91C}" name="Table6" displayName="Table6" ref="A1:I12" totalsRowShown="0">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CFB02C13-ECFF-4548-BD01-2A628F8E5BD7}" name="Classifier"/>
-    <tableColumn id="2" xr3:uid="{A8BCF036-771A-4816-9EAE-9AE8F536C1CB}" name="Features"/>
-    <tableColumn id="3" xr3:uid="{072AAFD6-A812-42FD-8ADE-C342D1D40D7B}" name="Accuracy" dataDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{4727DE4E-C8F3-4D11-BAD1-3EF1AE71F575}" name="Parameters"/>
-    <tableColumn id="6" xr3:uid="{D6DB5706-2436-4AC8-9EB5-A9F856943FDD}" name="True_Positives" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{AAF12777-CE98-4AD6-A7F9-88A4BB609F97}" name="True_Negatives" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{12CC3D41-9C54-46F5-847A-4A238F911C3D}" name="False_Positives" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{3DF5997E-E3AC-4F65-8F3F-BF34A77A9967}" name="False_Negatives" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{297BBF74-7BD2-45BE-99C6-458BA5D21332}" name="Cost(1000s)" dataCellStyle="Currency"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1305,17 +1468,17 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1489,7 @@
       <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4"/>
@@ -1344,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>91</v>
       </c>
@@ -1373,7 +1536,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>101</v>
       </c>
@@ -1402,7 +1565,7 @@
         <v>34094</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>92</v>
       </c>
@@ -1431,7 +1594,7 @@
         <v>33923</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1456,7 +1619,7 @@
         <v>30492</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1481,7 +1644,7 @@
         <v>9924</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1502,7 +1665,7 @@
         <v>7987</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1523,7 +1686,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1544,7 +1707,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1565,7 +1728,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1586,7 +1749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1607,7 +1770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1628,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1637,7 +1800,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>86</v>
       </c>
@@ -1645,7 +1808,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>93</v>
       </c>
@@ -1653,7 +1816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>94</v>
       </c>
@@ -1661,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
@@ -1669,16 +1832,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
   </sheetData>
@@ -1706,13 +1869,13 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>83</v>
       </c>
@@ -1720,7 +1883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
@@ -1728,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>34</v>
       </c>
@@ -1736,7 +1899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>82</v>
       </c>
@@ -1744,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>58</v>
       </c>
@@ -1752,7 +1915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>84</v>
       </c>
@@ -1774,9 +1937,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1810,7 +1973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1827,7 +1990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1844,7 +2007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1861,7 +2024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1878,7 +2041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1895,7 +2058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1912,7 +2075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1929,7 +2092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1946,7 +2109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1963,7 +2126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -1980,7 +2143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1997,7 +2160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -2014,7 +2177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -2031,7 +2194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -2048,7 +2211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -2065,7 +2228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -2082,7 +2245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -2099,7 +2262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -2116,7 +2279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -2133,7 +2296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -2150,7 +2313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2167,7 +2330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -2184,7 +2347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2201,7 +2364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2218,7 +2381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -2235,7 +2398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -2252,7 +2415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -2269,7 +2432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -2286,7 +2449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -2303,7 +2466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -2320,7 +2483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -2337,7 +2500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -2354,7 +2517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -2371,7 +2534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -2388,7 +2551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -2405,7 +2568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -2422,7 +2585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -2439,7 +2602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -2456,7 +2619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -2473,7 +2636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -2490,7 +2653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -2507,7 +2670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -2524,7 +2687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -2541,7 +2704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -2558,7 +2721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -2575,7 +2738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -2592,7 +2755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -2609,7 +2772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -2626,7 +2789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -2643,7 +2806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -2660,7 +2823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -2677,7 +2840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -2694,7 +2857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -2719,378 +2882,664 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73774219-A596-4AFA-B29C-A65C55A6F834}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="B4:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F4" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G4" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H4" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J4" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="5" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.93900600000000001</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="19">
+        <v>14758</v>
+      </c>
+      <c r="G5" s="19">
+        <v>22775</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1160</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1278</v>
+      </c>
+      <c r="J5" s="30">
+        <v>650.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.93315199999999998</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="22">
+        <v>14429</v>
+      </c>
+      <c r="G6" s="22">
+        <v>22870</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1065</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1607</v>
+      </c>
+      <c r="J6" s="32">
+        <v>814.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.92517099999999997</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="25">
+        <v>14400</v>
+      </c>
+      <c r="G7" s="25">
+        <v>22580</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1355</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1636</v>
+      </c>
+      <c r="J7" s="34">
+        <v>831.55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.93052500000000005</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="22">
+        <v>14311</v>
+      </c>
+      <c r="G8" s="22">
+        <v>22883</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1052</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1725</v>
+      </c>
+      <c r="J8" s="32">
+        <v>873.02</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.92164299999999999</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="25">
+        <v>14288</v>
+      </c>
+      <c r="G9" s="25">
+        <v>22551</v>
+      </c>
+      <c r="H9" s="25">
+        <v>1384</v>
+      </c>
+      <c r="I9" s="25">
+        <v>1748</v>
+      </c>
+      <c r="J9" s="34">
+        <v>887.84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.91756499999999996</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="22">
+        <v>13833</v>
+      </c>
+      <c r="G10" s="22">
+        <v>22843</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1092</v>
+      </c>
+      <c r="I10" s="22">
+        <v>2203</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1112.42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.85674600000000001</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="25">
+        <v>13154</v>
+      </c>
+      <c r="G11" s="25">
+        <v>21091</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2844</v>
+      </c>
+      <c r="I11" s="25">
+        <v>2882</v>
+      </c>
+      <c r="J11" s="34">
+        <v>1469.44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.84751399999999999</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="22">
+        <v>12894</v>
+      </c>
+      <c r="G12" s="22">
+        <v>20982</v>
+      </c>
+      <c r="H12" s="22">
+        <v>2953</v>
+      </c>
+      <c r="I12" s="22">
+        <v>3142</v>
+      </c>
+      <c r="J12" s="32">
+        <v>1600.53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.83938400000000002</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="25">
+        <v>12861</v>
+      </c>
+      <c r="G13" s="25">
+        <v>20690</v>
+      </c>
+      <c r="H13" s="25">
+        <v>3245</v>
+      </c>
+      <c r="I13" s="25">
+        <v>3175</v>
+      </c>
+      <c r="J13" s="34">
+        <v>1619.95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="22">
+        <v>8307</v>
+      </c>
+      <c r="G14" s="22">
+        <v>19249</v>
+      </c>
+      <c r="H14" s="22">
+        <v>4686</v>
+      </c>
+      <c r="I14" s="22">
+        <v>7729</v>
+      </c>
+      <c r="J14" s="32">
+        <v>3911.36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C15" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="18">
+      <c r="D15" s="37">
         <v>0.70733800000000002</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E15" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="17">
+      <c r="F15" s="38">
         <v>8244</v>
       </c>
-      <c r="F2" s="17">
+      <c r="G15" s="38">
         <v>20029</v>
       </c>
-      <c r="G2" s="17">
+      <c r="H15" s="38">
         <v>3906</v>
       </c>
-      <c r="H2" s="17">
+      <c r="I15" s="38">
         <v>7792</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J15" s="39">
         <v>3935.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="17">
-        <v>8307</v>
-      </c>
-      <c r="F3" s="17">
-        <v>19249</v>
-      </c>
-      <c r="G3" s="17">
-        <v>4686</v>
-      </c>
-      <c r="H3" s="17">
-        <v>7729</v>
-      </c>
-      <c r="I3" s="16">
-        <v>3911.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.83938400000000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="17">
-        <v>12861</v>
-      </c>
-      <c r="F4" s="17">
-        <v>20690</v>
-      </c>
-      <c r="G4" s="17">
-        <v>3245</v>
-      </c>
-      <c r="H4" s="17">
-        <v>3175</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1619.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.91756499999999996</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="17">
-        <v>13833</v>
-      </c>
-      <c r="F5" s="17">
-        <v>22843</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1092</v>
-      </c>
-      <c r="H5" s="17">
-        <v>2203</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1112.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.92164299999999999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="17">
-        <v>14288</v>
-      </c>
-      <c r="F6" s="17">
-        <v>22551</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1384</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1748</v>
-      </c>
-      <c r="I6" s="16">
-        <v>887.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.85674600000000001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="17">
-        <v>13154</v>
-      </c>
-      <c r="F7" s="17">
-        <v>21091</v>
-      </c>
-      <c r="G7" s="17">
-        <v>2844</v>
-      </c>
-      <c r="H7" s="17">
-        <v>2882</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1469.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.93052500000000005</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="17">
-        <v>14311</v>
-      </c>
-      <c r="F8" s="17">
-        <v>22883</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1052</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1725</v>
-      </c>
-      <c r="I8" s="16">
-        <v>873.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.92517099999999997</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="17">
-        <v>14400</v>
-      </c>
-      <c r="F9" s="17">
-        <v>22580</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1355</v>
-      </c>
-      <c r="H9" s="17">
-        <v>1636</v>
-      </c>
-      <c r="I9" s="16">
-        <v>831.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.84751399999999999</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="17">
-        <v>12894</v>
-      </c>
-      <c r="F10" s="17">
-        <v>20982</v>
-      </c>
-      <c r="G10" s="17">
-        <v>2953</v>
-      </c>
-      <c r="H10" s="17">
-        <v>3142</v>
-      </c>
-      <c r="I10" s="16">
-        <v>1600.53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.93315199999999998</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="17">
-        <v>14429</v>
-      </c>
-      <c r="F11" s="17">
-        <v>22870</v>
-      </c>
-      <c r="G11" s="17">
-        <v>1065</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1607</v>
-      </c>
-      <c r="I11" s="16">
-        <v>814.15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.93900600000000001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="17">
-        <v>14758</v>
-      </c>
-      <c r="F12" s="17">
-        <v>22775</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1160</v>
-      </c>
-      <c r="H12" s="17">
-        <v>1278</v>
-      </c>
-      <c r="I12" s="16">
-        <v>650.6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0EF151-A2DA-4EB0-8447-B8C1187378F9}">
+  <dimension ref="B4:J12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.92517099999999997</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="25">
+        <v>14400</v>
+      </c>
+      <c r="G5" s="25">
+        <v>22580</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1355</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1636</v>
+      </c>
+      <c r="J5" s="34">
+        <v>831.55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.93052500000000005</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="22">
+        <v>14311</v>
+      </c>
+      <c r="G6" s="22">
+        <v>22883</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1052</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1725</v>
+      </c>
+      <c r="J6" s="32">
+        <v>873.02</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.92164299999999999</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="25">
+        <v>14288</v>
+      </c>
+      <c r="G7" s="25">
+        <v>22551</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1384</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1748</v>
+      </c>
+      <c r="J7" s="34">
+        <v>887.84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.91756499999999996</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="22">
+        <v>13833</v>
+      </c>
+      <c r="G8" s="22">
+        <v>22843</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1092</v>
+      </c>
+      <c r="I8" s="22">
+        <v>2203</v>
+      </c>
+      <c r="J8" s="32">
+        <v>1112.42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.85674600000000001</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="25">
+        <v>13154</v>
+      </c>
+      <c r="G9" s="25">
+        <v>21091</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2844</v>
+      </c>
+      <c r="I9" s="25">
+        <v>2882</v>
+      </c>
+      <c r="J9" s="34">
+        <v>1469.44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.83938400000000002</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="25">
+        <v>12861</v>
+      </c>
+      <c r="G10" s="25">
+        <v>20690</v>
+      </c>
+      <c r="H10" s="25">
+        <v>3245</v>
+      </c>
+      <c r="I10" s="25">
+        <v>3175</v>
+      </c>
+      <c r="J10" s="34">
+        <v>1619.95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="22">
+        <v>8307</v>
+      </c>
+      <c r="G11" s="22">
+        <v>19249</v>
+      </c>
+      <c r="H11" s="22">
+        <v>4686</v>
+      </c>
+      <c r="I11" s="22">
+        <v>7729</v>
+      </c>
+      <c r="J11" s="32">
+        <v>3911.36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.70733800000000002</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="38">
+        <v>8244</v>
+      </c>
+      <c r="G12" s="38">
+        <v>20029</v>
+      </c>
+      <c r="H12" s="38">
+        <v>3906</v>
+      </c>
+      <c r="I12" s="38">
+        <v>7792</v>
+      </c>
+      <c r="J12" s="39">
+        <v>3935.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Case Study 7/Data Summary QTW final.xlsx
+++ b/Case Study 7/Data Summary QTW final.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevinm\Documents\GitHub\7333QTW\Case Study 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91974625-082B-4D8A-8B6F-9C746F9DDA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0501D2-60B6-4DDA-B537-9C4F8DC202F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24720" yWindow="2100" windowWidth="21600" windowHeight="11250" activeTab="4" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4 (2)" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet4 (3)" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4 (2)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="120">
   <si>
     <t>Unique</t>
   </si>
@@ -411,7 +412,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +455,21 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -667,7 +683,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -730,6 +746,60 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1464,6 +1534,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6573A8-E498-4CE7-91D8-0BC73B931564}">
+  <dimension ref="B4:J9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0.92164299999999999</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="48">
+        <v>14288</v>
+      </c>
+      <c r="G5" s="48">
+        <v>22551</v>
+      </c>
+      <c r="H5" s="48">
+        <v>1384</v>
+      </c>
+      <c r="I5" s="48">
+        <v>1748</v>
+      </c>
+      <c r="J5" s="49">
+        <v>887.84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0.91756499999999996</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="52">
+        <v>13833</v>
+      </c>
+      <c r="G6" s="52">
+        <v>22843</v>
+      </c>
+      <c r="H6" s="52">
+        <v>1092</v>
+      </c>
+      <c r="I6" s="52">
+        <v>2203</v>
+      </c>
+      <c r="J6" s="53">
+        <v>1112.42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="47">
+        <v>0.83938400000000002</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="48">
+        <v>12861</v>
+      </c>
+      <c r="G7" s="48">
+        <v>20690</v>
+      </c>
+      <c r="H7" s="48">
+        <v>3245</v>
+      </c>
+      <c r="I7" s="48">
+        <v>3175</v>
+      </c>
+      <c r="J7" s="49">
+        <v>1619.95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="52">
+        <v>8307</v>
+      </c>
+      <c r="G8" s="52">
+        <v>19249</v>
+      </c>
+      <c r="H8" s="52">
+        <v>4686</v>
+      </c>
+      <c r="I8" s="52">
+        <v>7729</v>
+      </c>
+      <c r="J8" s="53">
+        <v>3911.36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="55">
+        <v>0.70733800000000002</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="56">
+        <v>8244</v>
+      </c>
+      <c r="G9" s="56">
+        <v>20029</v>
+      </c>
+      <c r="H9" s="56">
+        <v>3906</v>
+      </c>
+      <c r="I9" s="56">
+        <v>7792</v>
+      </c>
+      <c r="J9" s="57">
+        <v>3935.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5EE7DE-9F81-4050-ACA1-2D36073FC468}">
   <dimension ref="B2:L33"/>
   <sheetViews>
@@ -1850,7 +2121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A7A9C2-04EA-4B1A-BB73-65F3932EFF16}">
   <dimension ref="B3:C8"/>
   <sheetViews>
@@ -1929,7 +2200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D640279F-A03C-439F-8278-C7EB2B83B233}">
   <dimension ref="A1:E55"/>
   <sheetViews>
@@ -2880,7 +3151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73774219-A596-4AFA-B29C-A65C55A6F834}">
   <dimension ref="B4:J15"/>
   <sheetViews>
@@ -3256,12 +3527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0EF151-A2DA-4EB0-8447-B8C1187378F9}">
   <dimension ref="B4:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Case Study 7/Data Summary QTW final.xlsx
+++ b/Case Study 7/Data Summary QTW final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevinm\Documents\GitHub\7333QTW\Case Study 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0501D2-60B6-4DDA-B537-9C4F8DC202F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBAF61E-F0E5-4327-9D66-8938D35467E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4 (3)" sheetId="8" r:id="rId1"/>
@@ -412,7 +412,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,14 +447,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -683,7 +675,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -723,81 +715,73 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6573A8-E498-4CE7-91D8-0BC73B931564}">
   <dimension ref="B4:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,176 +1539,176 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="24">
         <v>0.92164299999999999</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="25">
         <v>14288</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="25">
         <v>22551</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="25">
         <v>1384</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="25">
         <v>1748</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="26">
         <v>887.84</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="28">
         <v>0.91756499999999996</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="29">
         <v>13833</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="29">
         <v>22843</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="29">
         <v>1092</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="29">
         <v>2203</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="30">
         <v>1112.42</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="24">
         <v>0.83938400000000002</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="25">
         <v>12861</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="25">
         <v>20690</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="25">
         <v>3245</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="25">
         <v>3175</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="26">
         <v>1619.95</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="28">
         <v>0.68940000000000001</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="29">
         <v>8307</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="29">
         <v>19249</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="29">
         <v>4686</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="29">
         <v>7729</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="30">
         <v>3911.36</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="32">
         <v>0.70733800000000002</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="33">
         <v>8244</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="33">
         <v>20029</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="33">
         <v>3906</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="33">
         <v>7792</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="34">
         <v>3935.06</v>
       </c>
     </row>
@@ -3153,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73774219-A596-4AFA-B29C-A65C55A6F834}">
-  <dimension ref="B4:J15"/>
+  <dimension ref="B4:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,95 +3156,95 @@
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="37">
         <v>0.93900600000000001</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="38">
         <v>14758</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="38">
         <v>22775</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="38">
         <v>1160</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="38">
         <v>1278</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="39">
         <v>650.6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="28">
         <v>0.93315199999999998</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="29">
         <v>14429</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="29">
         <v>22870</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="29">
         <v>1065</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="29">
         <v>1607</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="30">
         <v>814.15</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -3284,41 +3268,41 @@
       <c r="I7" s="25">
         <v>1636</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="26">
         <v>831.55</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="28">
         <v>0.93052500000000005</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="29">
         <v>14311</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="29">
         <v>22883</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="29">
         <v>1052</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="29">
         <v>1725</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="30">
         <v>873.02</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -3342,41 +3326,41 @@
       <c r="I9" s="25">
         <v>1748</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="26">
         <v>887.84</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="28">
         <v>0.91756499999999996</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="29">
         <v>13833</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="29">
         <v>22843</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="29">
         <v>1092</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="29">
         <v>2203</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="30">
         <v>1112.42</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -3400,41 +3384,41 @@
       <c r="I11" s="25">
         <v>2882</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="26">
         <v>1469.44</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="28">
         <v>0.84751399999999999</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="29">
         <v>12894</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="29">
         <v>20982</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="29">
         <v>2953</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="29">
         <v>3142</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="30">
         <v>1600.53</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -3458,68 +3442,69 @@
       <c r="I13" s="25">
         <v>3175</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="26">
         <v>1619.95</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="28">
         <v>0.68940000000000001</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="29">
         <v>8307</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="29">
         <v>19249</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="29">
         <v>4686</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="29">
         <v>7729</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="30">
         <v>3911.36</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="32">
         <v>0.70733800000000002</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="33">
         <v>8244</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="33">
         <v>20029</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="33">
         <v>3906</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="33">
         <v>7792</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="34">
         <v>3935.06</v>
       </c>
     </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3532,7 +3517,7 @@
   <dimension ref="B4:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,37 +3533,37 @@
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -3602,41 +3587,41 @@
       <c r="I5" s="25">
         <v>1636</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="26">
         <v>831.55</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="28">
         <v>0.93052500000000005</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="29">
         <v>14311</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="29">
         <v>22883</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="29">
         <v>1052</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="29">
         <v>1725</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="30">
         <v>873.02</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -3660,41 +3645,41 @@
       <c r="I7" s="25">
         <v>1748</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="26">
         <v>887.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="28">
         <v>0.91756499999999996</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="29">
         <v>13833</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="29">
         <v>22843</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="29">
         <v>1092</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="29">
         <v>2203</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="30">
         <v>1112.42</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -3718,12 +3703,12 @@
       <c r="I9" s="25">
         <v>2882</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="26">
         <v>1469.44</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -3747,70 +3732,70 @@
       <c r="I10" s="25">
         <v>3175</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="26">
         <v>1619.95</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="28">
         <v>0.68940000000000001</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="29">
         <v>8307</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="29">
         <v>19249</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="29">
         <v>4686</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="29">
         <v>7729</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="30">
         <v>3911.36</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="32">
         <v>0.70733800000000002</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="33">
         <v>8244</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="33">
         <v>20029</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="33">
         <v>3906</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="33">
         <v>7792</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="34">
         <v>3935.06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Case Study 7/Data Summary QTW final.xlsx
+++ b/Case Study 7/Data Summary QTW final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevinm\Documents\GitHub\7333QTW\Case Study 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBAF61E-F0E5-4327-9D66-8938D35467E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB28D5B-4465-4B4A-9832-32A5EA78AA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4 (3)" sheetId="8" r:id="rId1"/>
@@ -675,7 +675,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -706,7 +706,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -783,6 +782,12 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1539,176 +1544,176 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>0.92164299999999999</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>14288</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>22551</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>1384</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>1748</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>887.84</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>0.91756499999999996</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>13833</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>22843</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>1092</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>2203</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>1112.42</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>0.83938400000000002</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>12861</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>20690</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>3245</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>3175</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>1619.95</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>0.68940000000000001</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>8307</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>19249</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>4686</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>7729</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>3911.36</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.70733800000000002</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>8244</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>20029</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="32">
         <v>3906</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <v>7792</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <v>3935.06</v>
       </c>
     </row>
@@ -1722,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5EE7DE-9F81-4050-ACA1-2D36073FC468}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,34 +1736,35 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +1772,7 @@
       <c r="B3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="40">
         <v>138965</v>
       </c>
       <c r="D3" s="4"/>
@@ -1780,14 +1786,14 @@
       <c r="H3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="40">
         <v>101535</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="9">
         <v>1E-4</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="40">
         <v>40767</v>
       </c>
     </row>
@@ -1795,7 +1801,7 @@
       <c r="B4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="40">
         <v>16538</v>
       </c>
       <c r="D4" s="4"/>
@@ -1809,14 +1815,14 @@
       <c r="H4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="40">
         <v>29429</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="9">
         <v>-1E-4</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="40">
         <v>34094</v>
       </c>
     </row>
@@ -1824,7 +1830,7 @@
       <c r="B5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="40">
         <v>4469</v>
       </c>
       <c r="D5" s="4"/>
@@ -1838,14 +1844,14 @@
       <c r="H5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="40">
         <v>27954</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="9">
         <v>0</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="40">
         <v>33923</v>
       </c>
     </row>
@@ -1863,14 +1869,14 @@
       <c r="H6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="40">
         <v>564</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="9">
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="40">
         <v>30492</v>
       </c>
     </row>
@@ -1888,14 +1894,14 @@
       <c r="H7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="40">
         <v>488</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="9">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="40">
         <v>9924</v>
       </c>
     </row>
@@ -1916,7 +1922,7 @@
       <c r="K8" s="9">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="40">
         <v>7987</v>
       </c>
     </row>
@@ -1937,7 +1943,7 @@
       <c r="K9" s="9">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="40">
         <v>1727</v>
       </c>
     </row>
@@ -1958,7 +1964,7 @@
       <c r="K10" s="9">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="40">
         <v>855</v>
       </c>
     </row>
@@ -1979,7 +1985,7 @@
       <c r="K11" s="9">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="40">
         <v>138</v>
       </c>
     </row>
@@ -2000,7 +2006,7 @@
       <c r="K12" s="9">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="40">
         <v>55</v>
       </c>
     </row>
@@ -2021,7 +2027,7 @@
       <c r="K13" s="9">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="40">
         <v>6</v>
       </c>
     </row>
@@ -2042,7 +2048,7 @@
       <c r="K14" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="40">
         <v>1</v>
       </c>
     </row>
@@ -2059,7 +2065,7 @@
       <c r="B18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="39" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2067,7 +2073,7 @@
       <c r="B19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="40">
         <v>45</v>
       </c>
     </row>
@@ -2075,7 +2081,7 @@
       <c r="B20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="40">
         <v>1</v>
       </c>
     </row>
@@ -2083,7 +2089,7 @@
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="40">
         <v>5</v>
       </c>
     </row>
@@ -2131,7 +2137,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C3" t="s">
@@ -2139,42 +2145,42 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>52</v>
       </c>
     </row>
@@ -3139,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73774219-A596-4AFA-B29C-A65C55A6F834}">
   <dimension ref="B4:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3157,350 +3163,350 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0.93900600000000001</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>14758</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>22775</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="37">
         <v>1160</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="37">
         <v>1278</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="38">
         <v>650.6</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>0.93315199999999998</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>14429</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>22870</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>1065</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>1607</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>814.15</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>0.92517099999999997</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>14400</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>22580</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>1355</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>1636</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>831.55</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>0.93052500000000005</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>14311</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>22883</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>1052</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>1725</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>873.02</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>0.92164299999999999</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>14288</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>22551</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>1384</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>1748</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>887.84</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>0.91756499999999996</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>13833</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>22843</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>1092</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>2203</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>1112.42</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>0.85674600000000001</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>13154</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>21091</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>2844</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <v>2882</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>1469.44</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>0.84751399999999999</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>12894</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <v>20982</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>2953</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <v>3142</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>1600.53</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>0.83938400000000002</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>12861</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>20690</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>3245</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <v>3175</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>1619.95</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>0.68940000000000001</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>8307</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>19249</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <v>4686</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>7729</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>3911.36</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>0.70733800000000002</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>8244</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>20029</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <v>3906</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <v>7792</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="33">
         <v>3935.06</v>
       </c>
     </row>
@@ -3534,263 +3540,263 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>0.92517099999999997</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>14400</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>22580</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>1355</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>1636</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>831.55</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>0.93052500000000005</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>14311</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>22883</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>1052</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>1725</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>873.02</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>0.92164299999999999</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>14288</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>22551</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>1384</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>1748</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>887.84</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>0.91756499999999996</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>13833</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>22843</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>1092</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>2203</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>1112.42</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>0.85674600000000001</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>13154</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>21091</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>2844</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>2882</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>1469.44</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>0.83938400000000002</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>12861</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>20690</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>3245</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <v>3175</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>1619.95</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>0.68940000000000001</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>8307</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>19249</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>4686</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>7729</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>3911.36</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>0.70733800000000002</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>8244</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>20029</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="32">
         <v>3906</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <v>7792</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="33">
         <v>3935.06</v>
       </c>
     </row>

--- a/Case Study 7/Data Summary QTW final.xlsx
+++ b/Case Study 7/Data Summary QTW final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevinm\Documents\GitHub\7333QTW\Case Study 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjschued\Documents\GitHub\7333QTW\Case Study 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB28D5B-4465-4B4A-9832-32A5EA78AA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545AFDD6-CB8F-423A-AF4C-C03F43F06423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="6" xr2:uid="{AB6B9DB5-2A84-4B58-8472-1E1AF0154493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4 (3)" sheetId="8" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet4 (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
   <si>
     <t>Unique</t>
   </si>
@@ -401,6 +402,33 @@
   </si>
   <si>
     <t>Best</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Ensemble_2</t>
+  </si>
+  <si>
+    <t>Ensemble_4</t>
+  </si>
+  <si>
+    <t>Ensemble_5</t>
+  </si>
+  <si>
+    <t>Ensemble_5_data_leakage</t>
+  </si>
+  <si>
+    <t>Ensemble_1</t>
+  </si>
+  <si>
+    <t>Ensemble_3</t>
   </si>
 </sst>
 </file>
@@ -1530,20 +1558,20 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
@@ -1572,7 +1600,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>117</v>
       </c>
@@ -1601,7 +1629,7 @@
         <v>887.84</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>116</v>
       </c>
@@ -1630,7 +1658,7 @@
         <v>1112.42</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>115</v>
       </c>
@@ -1659,7 +1687,7 @@
         <v>1619.95</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>114</v>
       </c>
@@ -1688,7 +1716,7 @@
         <v>3911.36</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>111</v>
       </c>
@@ -1727,19 +1755,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5EE7DE-9F81-4050-ACA1-2D36073FC468}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1768,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>91</v>
       </c>
@@ -1797,7 +1825,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>101</v>
       </c>
@@ -1826,7 +1854,7 @@
         <v>34094</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>92</v>
       </c>
@@ -1855,7 +1883,7 @@
         <v>33923</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1880,7 +1908,7 @@
         <v>30492</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1905,7 +1933,7 @@
         <v>9924</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1926,7 +1954,7 @@
         <v>7987</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1947,7 +1975,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1968,7 +1996,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1989,7 +2017,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2010,7 +2038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2031,7 +2059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2052,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2061,7 +2089,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>86</v>
       </c>
@@ -2069,7 +2097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>93</v>
       </c>
@@ -2077,7 +2105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>94</v>
       </c>
@@ -2085,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
@@ -2093,16 +2121,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
   </sheetData>
@@ -2130,13 +2158,13 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>83</v>
       </c>
@@ -2144,7 +2172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
@@ -2152,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
@@ -2160,7 +2188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>82</v>
       </c>
@@ -2168,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>58</v>
       </c>
@@ -2176,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>84</v>
       </c>
@@ -2198,9 +2226,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2217,7 +2245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2234,7 +2262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2251,7 +2279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2268,7 +2296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2285,7 +2313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2302,7 +2330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2319,7 +2347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2336,7 +2364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -2353,7 +2381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2370,7 +2398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -2387,7 +2415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -2404,7 +2432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -2421,7 +2449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -2438,7 +2466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -2455,7 +2483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -2472,7 +2500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -2489,7 +2517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -2506,7 +2534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -2523,7 +2551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -2540,7 +2568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -2557,7 +2585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -2574,7 +2602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2591,7 +2619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -2608,7 +2636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2625,7 +2653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2642,7 +2670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -2659,7 +2687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -2676,7 +2704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -2693,7 +2721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -2710,7 +2738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -2727,7 +2755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -2744,7 +2772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -2761,7 +2789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -2778,7 +2806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -2795,7 +2823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -2812,7 +2840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -2829,7 +2857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -2846,7 +2874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -2863,7 +2891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -2880,7 +2908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -2897,7 +2925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -2914,7 +2942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -2931,7 +2959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -2948,7 +2976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -2965,7 +2993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -2982,7 +3010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -2999,7 +3027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -3016,7 +3044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -3033,7 +3061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -3050,7 +3078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -3067,7 +3095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -3084,7 +3112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -3101,7 +3129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -3118,7 +3146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -3149,20 +3177,20 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
@@ -3191,7 +3219,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
         <v>117</v>
       </c>
@@ -3220,7 +3248,7 @@
         <v>650.6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>116</v>
       </c>
@@ -3249,7 +3277,7 @@
         <v>814.15</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>117</v>
       </c>
@@ -3278,7 +3306,7 @@
         <v>831.55</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>116</v>
       </c>
@@ -3307,7 +3335,7 @@
         <v>873.02</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>117</v>
       </c>
@@ -3336,7 +3364,7 @@
         <v>887.84</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>116</v>
       </c>
@@ -3365,7 +3393,7 @@
         <v>1112.42</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>115</v>
       </c>
@@ -3394,7 +3422,7 @@
         <v>1469.44</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>115</v>
       </c>
@@ -3423,7 +3451,7 @@
         <v>1600.53</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>115</v>
       </c>
@@ -3452,7 +3480,7 @@
         <v>1619.95</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>114</v>
       </c>
@@ -3481,7 +3509,7 @@
         <v>3911.36</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
         <v>111</v>
       </c>
@@ -3510,7 +3538,7 @@
         <v>3935.06</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3526,20 +3554,20 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
@@ -3568,7 +3596,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>117</v>
       </c>
@@ -3597,7 +3625,7 @@
         <v>831.55</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>116</v>
       </c>
@@ -3626,7 +3654,7 @@
         <v>873.02</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>117</v>
       </c>
@@ -3655,7 +3683,7 @@
         <v>887.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>116</v>
       </c>
@@ -3684,7 +3712,7 @@
         <v>1112.42</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>115</v>
       </c>
@@ -3713,7 +3741,7 @@
         <v>1469.44</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>115</v>
       </c>
@@ -3742,7 +3770,7 @@
         <v>1619.95</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>114</v>
       </c>
@@ -3771,7 +3799,7 @@
         <v>3911.36</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>111</v>
       </c>
@@ -3804,4 +3832,707 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E106C867-047D-4FA8-B27E-77918C5F9215}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2">
+        <v>0.942859</v>
+      </c>
+      <c r="E2">
+        <v>0.942859</v>
+      </c>
+      <c r="F2">
+        <v>0.93239799999999995</v>
+      </c>
+      <c r="G2">
+        <v>0.98296099999999997</v>
+      </c>
+      <c r="H2">
+        <v>14827</v>
+      </c>
+      <c r="I2">
+        <v>22860</v>
+      </c>
+      <c r="J2">
+        <v>1075</v>
+      </c>
+      <c r="K2">
+        <v>1209</v>
+      </c>
+      <c r="L2">
+        <v>615.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3">
+        <v>0.94270799999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.94270799999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.93264499999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.98331299999999999</v>
+      </c>
+      <c r="H3">
+        <v>14816</v>
+      </c>
+      <c r="I3">
+        <v>22865</v>
+      </c>
+      <c r="J3">
+        <v>1070</v>
+      </c>
+      <c r="K3">
+        <v>1220</v>
+      </c>
+      <c r="L3">
+        <v>620.70000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4">
+        <v>0.942658</v>
+      </c>
+      <c r="E4">
+        <v>0.942658</v>
+      </c>
+      <c r="F4">
+        <v>0.93269100000000005</v>
+      </c>
+      <c r="G4">
+        <v>0.95735800000000004</v>
+      </c>
+      <c r="H4">
+        <v>14813</v>
+      </c>
+      <c r="I4">
+        <v>22866</v>
+      </c>
+      <c r="J4">
+        <v>1069</v>
+      </c>
+      <c r="K4">
+        <v>1223</v>
+      </c>
+      <c r="L4">
+        <v>622.19000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <v>0.94131399999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.942083</v>
+      </c>
+      <c r="F5">
+        <v>0.93281199999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.95737300000000003</v>
+      </c>
+      <c r="H5">
+        <v>14786</v>
+      </c>
+      <c r="I5">
+        <v>22870</v>
+      </c>
+      <c r="J5">
+        <v>1065</v>
+      </c>
+      <c r="K5">
+        <v>1250</v>
+      </c>
+      <c r="L5">
+        <v>635.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>0.93900600000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.93900600000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.92712700000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.98214599999999996</v>
+      </c>
+      <c r="H6">
+        <v>14758</v>
+      </c>
+      <c r="I6">
+        <v>22775</v>
+      </c>
+      <c r="J6">
+        <v>1160</v>
+      </c>
+      <c r="K6">
+        <v>1278</v>
+      </c>
+      <c r="L6">
+        <v>650.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7">
+        <v>0.93197600000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.93197600000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.92418900000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.92746700000000004</v>
+      </c>
+      <c r="H7">
+        <v>14507</v>
+      </c>
+      <c r="I7">
+        <v>22745</v>
+      </c>
+      <c r="J7">
+        <v>1190</v>
+      </c>
+      <c r="K7">
+        <v>1529</v>
+      </c>
+      <c r="L7">
+        <v>776.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8">
+        <v>0.93315199999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.93315199999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.93126399999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.97944399999999998</v>
+      </c>
+      <c r="H8">
+        <v>14429</v>
+      </c>
+      <c r="I8">
+        <v>22870</v>
+      </c>
+      <c r="J8">
+        <v>1065</v>
+      </c>
+      <c r="K8">
+        <v>1607</v>
+      </c>
+      <c r="L8">
+        <v>814.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9">
+        <v>0.92517099999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.92517099999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.91399600000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.97565999999999997</v>
+      </c>
+      <c r="H9">
+        <v>14400</v>
+      </c>
+      <c r="I9">
+        <v>22580</v>
+      </c>
+      <c r="J9">
+        <v>1355</v>
+      </c>
+      <c r="K9">
+        <v>1636</v>
+      </c>
+      <c r="L9">
+        <v>831.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10">
+        <v>0.93052500000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.93052500000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.93152400000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.97824999999999995</v>
+      </c>
+      <c r="H10">
+        <v>14311</v>
+      </c>
+      <c r="I10">
+        <v>22883</v>
+      </c>
+      <c r="J10">
+        <v>1052</v>
+      </c>
+      <c r="K10">
+        <v>1725</v>
+      </c>
+      <c r="L10">
+        <v>873.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11">
+        <v>0.92164299999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.92164299999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.91169</v>
+      </c>
+      <c r="G11">
+        <v>0.97398899999999999</v>
+      </c>
+      <c r="H11">
+        <v>14288</v>
+      </c>
+      <c r="I11">
+        <v>22551</v>
+      </c>
+      <c r="J11">
+        <v>1384</v>
+      </c>
+      <c r="K11">
+        <v>1748</v>
+      </c>
+      <c r="L11">
+        <v>887.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>0.91756499999999996</v>
+      </c>
+      <c r="E12">
+        <v>0.91756499999999996</v>
+      </c>
+      <c r="F12">
+        <v>0.92683400000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.97189499999999995</v>
+      </c>
+      <c r="H12">
+        <v>13833</v>
+      </c>
+      <c r="I12">
+        <v>22843</v>
+      </c>
+      <c r="J12">
+        <v>1092</v>
+      </c>
+      <c r="K12">
+        <v>2203</v>
+      </c>
+      <c r="L12">
+        <v>1112.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>0.85674600000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.85674600000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.82222799999999996</v>
+      </c>
+      <c r="G13">
+        <v>0.85072899999999996</v>
+      </c>
+      <c r="H13">
+        <v>13154</v>
+      </c>
+      <c r="I13">
+        <v>21091</v>
+      </c>
+      <c r="J13">
+        <v>2844</v>
+      </c>
+      <c r="K13">
+        <v>2882</v>
+      </c>
+      <c r="L13">
+        <v>1469.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14">
+        <v>0.84751399999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.84751399999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.81365600000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.85485800000000001</v>
+      </c>
+      <c r="H14">
+        <v>12894</v>
+      </c>
+      <c r="I14">
+        <v>20982</v>
+      </c>
+      <c r="J14">
+        <v>2953</v>
+      </c>
+      <c r="K14">
+        <v>3142</v>
+      </c>
+      <c r="L14">
+        <v>1600.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15">
+        <v>0.83938400000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.83938400000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.79852199999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.83321599999999996</v>
+      </c>
+      <c r="H15">
+        <v>12861</v>
+      </c>
+      <c r="I15">
+        <v>20690</v>
+      </c>
+      <c r="J15">
+        <v>3245</v>
+      </c>
+      <c r="K15">
+        <v>3175</v>
+      </c>
+      <c r="L15">
+        <v>1619.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16">
+        <v>0.84819</v>
+      </c>
+      <c r="E16">
+        <v>0.84819</v>
+      </c>
+      <c r="F16">
+        <v>0.82188099999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.85485800000000001</v>
+      </c>
+      <c r="H16">
+        <v>12726</v>
+      </c>
+      <c r="I16">
+        <v>21177</v>
+      </c>
+      <c r="J16">
+        <v>2758</v>
+      </c>
+      <c r="K16">
+        <v>3310</v>
+      </c>
+      <c r="L16">
+        <v>1682.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.63934400000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.74241100000000004</v>
+      </c>
+      <c r="H17">
+        <v>8307</v>
+      </c>
+      <c r="I17">
+        <v>19249</v>
+      </c>
+      <c r="J17">
+        <v>4686</v>
+      </c>
+      <c r="K17">
+        <v>7729</v>
+      </c>
+      <c r="L17">
+        <v>3911.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18">
+        <v>0.70733800000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.70733800000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.67851899999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.76541599999999999</v>
+      </c>
+      <c r="H18">
+        <v>8244</v>
+      </c>
+      <c r="I18">
+        <v>20029</v>
+      </c>
+      <c r="J18">
+        <v>3906</v>
+      </c>
+      <c r="K18">
+        <v>7792</v>
+      </c>
+      <c r="L18">
+        <v>3935.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>